--- a/xlsx/php選手権_骨子.xlsx
+++ b/xlsx/php選手権_骨子.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/gs/PHP_championship_hidetaka_y/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09960732-A099-1D4D-88D0-D7D269918507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771989C3-9D6A-C147-9F46-4CA15F719E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20200" activeTab="1" xr2:uid="{E38387A7-D199-B74B-AE86-F0B0EAFBB4A7}"/>
+    <workbookView xWindow="1600" yWindow="2220" windowWidth="35060" windowHeight="15880" activeTab="1" xr2:uid="{E38387A7-D199-B74B-AE86-F0B0EAFBB4A7}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
     <sheet name="スケジュール" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
   <si>
     <t>PHP選手権</t>
     <rPh sb="3" eb="6">
@@ -102,10 +102,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>← Today</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>大項目</t>
     <rPh sb="0" eb="3">
       <t xml:space="preserve">ダイコウモク </t>
@@ -406,13 +402,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>練習</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">レンシュウ </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>◉各機能</t>
     <rPh sb="1" eb="4">
       <t xml:space="preserve">カクキノウ </t>
@@ -492,6 +481,50 @@
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ゴゴ </t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モーダル　</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン　</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いいね</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>three.js</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全体のUI/UXを更新</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ゼンタイノ </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">コウシｎ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>練習</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">レンシュウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>php選手権</t>
+    <rPh sb="3" eb="6">
+      <t xml:space="preserve">センシュケｎ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Today ⇨</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -500,9 +533,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="m/d;@"/>
+    <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -556,6 +589,14 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -589,7 +630,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1094,13 +1135,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1113,10 +1180,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1125,30 +1192,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1170,164 +1213,221 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1696,57 +1796,57 @@
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1757,31 +1857,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637A2A2C-383F-1F4E-986C-C86EB6F1AA22}">
-  <dimension ref="B1:S28"/>
+  <dimension ref="B1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <pane xSplit="6" ySplit="8" topLeftCell="G9" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="T1" sqref="T1"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="20" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" style="4" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" style="5" customWidth="1"/>
-    <col min="7" max="17" width="9.5703125" style="3" customWidth="1"/>
+    <col min="7" max="17" width="9.140625" style="3" customWidth="1"/>
     <col min="18" max="16384" width="3" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="10" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:19" ht="29" x14ac:dyDescent="0.35">
       <c r="B2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1790,587 +1890,720 @@
         <v>8</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="8">
+      <c r="D4" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="81">
         <f ca="1">TODAY()</f>
+        <v>45088</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" s="8" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="55"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="60"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="51">
+        <v>10</v>
+      </c>
+      <c r="H6" s="52"/>
+      <c r="I6" s="51">
+        <v>11</v>
+      </c>
+      <c r="J6" s="52"/>
+      <c r="K6" s="51">
+        <v>12</v>
+      </c>
+      <c r="L6" s="52"/>
+      <c r="M6" s="65">
+        <v>13</v>
+      </c>
+      <c r="N6" s="66"/>
+      <c r="O6" s="65">
+        <v>14</v>
+      </c>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="54"/>
+      <c r="I7" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="54"/>
+      <c r="K7" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="54"/>
+      <c r="M7" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="68"/>
+      <c r="O7" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q8" s="45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="15">
         <v>45087</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:19" s="16" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="15"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B6" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="66">
-        <v>10</v>
-      </c>
-      <c r="H6" s="67"/>
-      <c r="I6" s="66">
-        <v>11</v>
-      </c>
-      <c r="J6" s="67"/>
-      <c r="K6" s="66">
-        <v>12</v>
-      </c>
-      <c r="L6" s="67"/>
-      <c r="M6" s="68">
-        <v>13</v>
-      </c>
-      <c r="N6" s="69"/>
-      <c r="O6" s="68">
-        <v>14</v>
-      </c>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="56">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="71"/>
-      <c r="I7" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="71"/>
-      <c r="K7" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="71"/>
-      <c r="M7" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="73"/>
-      <c r="O7" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="65" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="62" t="s">
+      <c r="F9" s="15">
+        <v>45087</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="39"/>
+      <c r="S9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B10" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="15">
+        <v>45087</v>
+      </c>
+      <c r="F10" s="15">
+        <v>45087</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="40"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B11" s="49"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="15">
+        <v>45087</v>
+      </c>
+      <c r="F11" s="15">
+        <v>45087</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="41"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B12" s="50"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="15">
+        <v>45087</v>
+      </c>
+      <c r="F12" s="15">
+        <v>45087</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="41"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B13" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="15">
+        <v>45087</v>
+      </c>
+      <c r="F13" s="15">
+        <v>45087</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="40"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B14" s="49"/>
+      <c r="C14" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="15">
+        <v>45087</v>
+      </c>
+      <c r="F14" s="15">
+        <v>45087</v>
+      </c>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="42"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B15" s="50"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="15">
+        <v>45087</v>
+      </c>
+      <c r="F15" s="15">
+        <v>45087</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="41"/>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
+      <c r="B16" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="62" t="s">
+      <c r="E16" s="15">
+        <v>45087</v>
+      </c>
+      <c r="F16" s="15">
+        <v>45087</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="40"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B17" s="49"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="62" t="s">
+      <c r="E17" s="15">
+        <v>45088</v>
+      </c>
+      <c r="F17" s="83">
+        <v>45088</v>
+      </c>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="39"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B18" s="49"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="15">
+        <v>45089</v>
+      </c>
+      <c r="F18" s="83"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="39"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B19" s="49"/>
+      <c r="C19" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="22">
+        <v>45091</v>
+      </c>
+      <c r="F19" s="83"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="39"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B20" s="50"/>
+      <c r="C20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="22">
+        <v>45091</v>
+      </c>
+      <c r="F20" s="83"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="39"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B21" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="J8" s="62" t="s">
+      <c r="E21" s="15">
+        <v>45087</v>
+      </c>
+      <c r="F21" s="84">
+        <v>45087</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="42"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B22" s="49"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="L8" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="M8" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="N8" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="O8" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="P8" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q8" s="64" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B9" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="23">
+      <c r="E22" s="15">
+        <v>45088</v>
+      </c>
+      <c r="F22" s="83">
+        <v>45088</v>
+      </c>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="42"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B23" s="49"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="15">
+        <v>45089</v>
+      </c>
+      <c r="F23" s="83"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="69"/>
+      <c r="Q23" s="42"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B24" s="49"/>
+      <c r="C24" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="22">
+        <v>45091</v>
+      </c>
+      <c r="F24" s="83"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="42"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B25" s="50"/>
+      <c r="C25" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="22">
+        <v>45091</v>
+      </c>
+      <c r="F25" s="83"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="42"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B26" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="23">
         <v>45087</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F26" s="23">
         <v>45087</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="57"/>
-      <c r="S9" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B10" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="23">
-        <v>45087</v>
-      </c>
-      <c r="F10" s="23">
-        <v>45087</v>
-      </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="58"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B11" s="29"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="23">
-        <v>45087</v>
-      </c>
-      <c r="F11" s="23">
-        <v>45087</v>
-      </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="59"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="23">
-        <v>45087</v>
-      </c>
-      <c r="F12" s="23">
-        <v>45087</v>
-      </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="59"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B13" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="23">
-        <v>45087</v>
-      </c>
-      <c r="F13" s="23">
-        <v>45087</v>
-      </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="58"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B14" s="29"/>
-      <c r="C14" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="23">
-        <v>45087</v>
-      </c>
-      <c r="F14" s="23">
-        <v>45087</v>
-      </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="60"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B15" s="32"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="23">
-        <v>45087</v>
-      </c>
-      <c r="F15" s="23">
-        <v>45087</v>
-      </c>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="59"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B16" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="23">
-        <v>45089</v>
-      </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="58"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B17" s="29"/>
-      <c r="C17" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="38">
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="42"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B27" s="49"/>
+      <c r="C27" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="23">
         <v>45091</v>
       </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="57"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B18" s="32"/>
-      <c r="C18" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="57"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B19" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="23">
-        <v>45089</v>
-      </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="60"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B20" s="29"/>
-      <c r="C20" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="38">
+      <c r="F27" s="83"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="42"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B28" s="50"/>
+      <c r="C28" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="24"/>
+      <c r="E28" s="23">
         <v>45091</v>
       </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="60"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B21" s="32"/>
-      <c r="C21" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="60"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B22" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="39">
-        <v>45087</v>
-      </c>
-      <c r="F22" s="39">
-        <v>45087</v>
-      </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="60"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B23" s="29"/>
-      <c r="C23" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="39">
+      <c r="F28" s="83"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="42"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B29" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="74"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="80">
         <v>45091</v>
       </c>
-      <c r="F23" s="37"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="52"/>
-      <c r="Q23" s="60"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B24" s="32"/>
-      <c r="C24" s="40" t="s">
+      <c r="F29" s="85"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="76"/>
+      <c r="Q29" s="77"/>
+    </row>
+    <row r="30" spans="2:17" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="27">
+        <v>45092</v>
+      </c>
+      <c r="F30" s="86"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="79"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="G32" s="28"/>
+      <c r="H32" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="39">
-        <v>45091</v>
-      </c>
-      <c r="F24" s="37"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="60"/>
-    </row>
-    <row r="25" spans="2:17" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="43">
-        <v>45091</v>
-      </c>
-      <c r="F25" s="44"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="61"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="3" t="s">
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.35">
+      <c r="G33" s="29"/>
+      <c r="H33" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
+  <mergeCells count="21">
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="G5:Q5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C21:C23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/php選手権_骨子.xlsx
+++ b/xlsx/php選手権_骨子.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/gs/PHP_championship_hidetaka_y/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771989C3-9D6A-C147-9F46-4CA15F719E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2FD098-C789-6E49-9520-9FA17B59A07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="2220" windowWidth="35060" windowHeight="15880" activeTab="1" xr2:uid="{E38387A7-D199-B74B-AE86-F0B0EAFBB4A7}"/>
+    <workbookView xWindow="1600" yWindow="2220" windowWidth="32560" windowHeight="18460" activeTab="1" xr2:uid="{E38387A7-D199-B74B-AE86-F0B0EAFBB4A7}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -1860,10 +1860,10 @@
   <dimension ref="B1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="6" ySplit="8" topLeftCell="G9" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="6" ySplit="8" topLeftCell="G11" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="T1" sqref="T1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomRight" activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="20" x14ac:dyDescent="0.35"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="E4" s="81">
         <f ca="1">TODAY()</f>
-        <v>45088</v>
+        <v>45090</v>
       </c>
     </row>
     <row r="5" spans="2:19" s="8" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.4">
@@ -2272,7 +2272,9 @@
       <c r="E18" s="15">
         <v>45089</v>
       </c>
-      <c r="F18" s="83"/>
+      <c r="F18" s="83">
+        <v>45089</v>
+      </c>
       <c r="G18" s="71"/>
       <c r="H18" s="71"/>
       <c r="I18" s="71"/>
@@ -2392,7 +2394,7 @@
         <v>64</v>
       </c>
       <c r="E23" s="15">
-        <v>45089</v>
+        <v>45090</v>
       </c>
       <c r="F23" s="83"/>
       <c r="G23" s="71"/>
@@ -2401,7 +2403,7 @@
       <c r="J23" s="71"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
-      <c r="M23" s="30"/>
+      <c r="M23" s="16"/>
       <c r="N23" s="69"/>
       <c r="O23" s="69"/>
       <c r="P23" s="69"/>
@@ -2423,8 +2425,8 @@
       <c r="H24" s="30"/>
       <c r="I24" s="30"/>
       <c r="J24" s="30"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>

--- a/xlsx/php選手権_骨子.xlsx
+++ b/xlsx/php選手権_骨子.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/gs/PHP_championship_hidetaka_y/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2FD098-C789-6E49-9520-9FA17B59A07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED46C8C1-0106-A74B-BF22-ACEF0254C852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="2220" windowWidth="32560" windowHeight="18460" activeTab="1" xr2:uid="{E38387A7-D199-B74B-AE86-F0B0EAFBB4A7}"/>
+    <workbookView xWindow="3380" yWindow="1600" windowWidth="30780" windowHeight="19080" activeTab="1" xr2:uid="{E38387A7-D199-B74B-AE86-F0B0EAFBB4A7}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -1167,7 +1167,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1312,6 +1312,78 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1321,36 +1393,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1363,71 +1405,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1863,7 +1842,7 @@
       <pane xSplit="6" ySplit="8" topLeftCell="G11" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="T1" sqref="T1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="R13" sqref="R13"/>
+      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="20" x14ac:dyDescent="0.35"/>
@@ -1890,33 +1869,33 @@
         <v>8</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="81">
+      <c r="E4" s="54">
         <f ca="1">TODAY()</f>
         <v>45090</v>
       </c>
     </row>
     <row r="5" spans="2:19" s="8" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="55"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="58" t="s">
+      <c r="B5" s="62"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="60"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="67"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
@@ -1934,26 +1913,26 @@
       <c r="F6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="51">
+      <c r="G6" s="58">
         <v>10</v>
       </c>
-      <c r="H6" s="52"/>
-      <c r="I6" s="51">
+      <c r="H6" s="59"/>
+      <c r="I6" s="58">
         <v>11</v>
       </c>
-      <c r="J6" s="52"/>
-      <c r="K6" s="51">
+      <c r="J6" s="59"/>
+      <c r="K6" s="58">
         <v>12</v>
       </c>
-      <c r="L6" s="52"/>
-      <c r="M6" s="65">
+      <c r="L6" s="59"/>
+      <c r="M6" s="68">
         <v>13</v>
       </c>
-      <c r="N6" s="66"/>
-      <c r="O6" s="65">
+      <c r="N6" s="69"/>
+      <c r="O6" s="68">
         <v>14</v>
       </c>
-      <c r="P6" s="66"/>
+      <c r="P6" s="69"/>
       <c r="Q6" s="38">
         <v>15</v>
       </c>
@@ -1964,26 +1943,26 @@
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="53" t="s">
+      <c r="G7" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="53" t="s">
+      <c r="H7" s="61"/>
+      <c r="I7" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="53" t="s">
+      <c r="J7" s="61"/>
+      <c r="K7" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="54"/>
-      <c r="M7" s="67" t="s">
+      <c r="L7" s="61"/>
+      <c r="M7" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="68"/>
-      <c r="O7" s="67" t="s">
+      <c r="N7" s="71"/>
+      <c r="O7" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="P7" s="68"/>
+      <c r="P7" s="71"/>
       <c r="Q7" s="46" t="s">
         <v>19</v>
       </c>
@@ -2060,10 +2039,10 @@
       </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="75" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="18" t="s">
@@ -2088,8 +2067,8 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B11" s="49"/>
-      <c r="C11" s="62"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="18" t="s">
         <v>27</v>
       </c>
@@ -2112,8 +2091,8 @@
       <c r="Q11" s="41"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B12" s="50"/>
-      <c r="C12" s="63"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="18" t="s">
         <v>28</v>
       </c>
@@ -2136,7 +2115,7 @@
       <c r="Q12" s="41"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="72" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="17" t="s">
@@ -2162,8 +2141,8 @@
       <c r="Q13" s="40"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B14" s="49"/>
-      <c r="C14" s="64" t="s">
+      <c r="B14" s="73"/>
+      <c r="C14" s="78" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="18" t="s">
@@ -2188,8 +2167,8 @@
       <c r="Q14" s="42"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B15" s="50"/>
-      <c r="C15" s="64"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="18" t="s">
         <v>32</v>
       </c>
@@ -2212,10 +2191,10 @@
       <c r="Q15" s="41"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="75" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="18" t="s">
@@ -2229,10 +2208,10 @@
       </c>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
       <c r="M16" s="32"/>
       <c r="N16" s="32"/>
       <c r="O16" s="32"/>
@@ -2240,55 +2219,55 @@
       <c r="Q16" s="40"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B17" s="49"/>
-      <c r="C17" s="62"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="18" t="s">
         <v>63</v>
       </c>
       <c r="E17" s="15">
         <v>45088</v>
       </c>
-      <c r="F17" s="83">
+      <c r="F17" s="22">
         <v>45088</v>
       </c>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="16"/>
       <c r="J17" s="16"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
       <c r="M17" s="30"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="69"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
       <c r="Q17" s="39"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B18" s="49"/>
-      <c r="C18" s="63"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="77"/>
       <c r="D18" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E18" s="15">
         <v>45089</v>
       </c>
-      <c r="F18" s="83">
+      <c r="F18" s="22">
         <v>45089</v>
       </c>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
       <c r="K18" s="16"/>
       <c r="L18" s="16"/>
       <c r="M18" s="30"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="69"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
       <c r="Q18" s="39"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B19" s="49"/>
+      <c r="B19" s="73"/>
       <c r="C19" s="18" t="s">
         <v>35</v>
       </c>
@@ -2298,21 +2277,21 @@
       <c r="E19" s="22">
         <v>45091</v>
       </c>
-      <c r="F19" s="83"/>
+      <c r="F19" s="22"/>
       <c r="G19" s="30"/>
       <c r="H19" s="30"/>
       <c r="I19" s="30"/>
       <c r="J19" s="30"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="16"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="79"/>
       <c r="N19" s="16"/>
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
       <c r="Q19" s="39"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B20" s="50"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="18" t="s">
         <v>36</v>
       </c>
@@ -2322,24 +2301,24 @@
       <c r="E20" s="22">
         <v>45091</v>
       </c>
-      <c r="F20" s="83"/>
+      <c r="F20" s="22"/>
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
       <c r="I20" s="30"/>
       <c r="J20" s="30"/>
       <c r="K20" s="30"/>
       <c r="L20" s="30"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="72"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="33"/>
       <c r="O20" s="20"/>
       <c r="P20" s="20"/>
       <c r="Q20" s="39"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="75" t="s">
         <v>38</v>
       </c>
       <c r="D21" s="18" t="s">
@@ -2348,15 +2327,15 @@
       <c r="E21" s="15">
         <v>45087</v>
       </c>
-      <c r="F21" s="84">
+      <c r="F21" s="15">
         <v>45087</v>
       </c>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
       <c r="M21" s="32"/>
       <c r="N21" s="32"/>
       <c r="O21" s="32"/>
@@ -2364,53 +2343,53 @@
       <c r="Q21" s="42"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B22" s="49"/>
-      <c r="C22" s="62"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="76"/>
       <c r="D22" s="18" t="s">
         <v>63</v>
       </c>
       <c r="E22" s="15">
         <v>45088</v>
       </c>
-      <c r="F22" s="83">
+      <c r="F22" s="22">
         <v>45088</v>
       </c>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
       <c r="M22" s="30"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="69"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
       <c r="Q22" s="42"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B23" s="49"/>
-      <c r="C23" s="63"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="77"/>
       <c r="D23" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E23" s="15">
         <v>45090</v>
       </c>
-      <c r="F23" s="83"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="69"/>
-      <c r="P23" s="69"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
       <c r="Q23" s="42"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B24" s="49"/>
+      <c r="B24" s="73"/>
       <c r="C24" s="18" t="s">
         <v>39</v>
       </c>
@@ -2420,13 +2399,13 @@
       <c r="E24" s="22">
         <v>45091</v>
       </c>
-      <c r="F24" s="83"/>
+      <c r="F24" s="22"/>
       <c r="G24" s="30"/>
       <c r="H24" s="30"/>
       <c r="I24" s="30"/>
       <c r="J24" s="30"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
       <c r="O24" s="16"/>
@@ -2434,7 +2413,7 @@
       <c r="Q24" s="42"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B25" s="50"/>
+      <c r="B25" s="74"/>
       <c r="C25" s="18" t="s">
         <v>40</v>
       </c>
@@ -2444,21 +2423,21 @@
       <c r="E25" s="22">
         <v>45091</v>
       </c>
-      <c r="F25" s="83"/>
+      <c r="F25" s="22"/>
       <c r="G25" s="34"/>
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
       <c r="J25" s="34"/>
       <c r="K25" s="34"/>
       <c r="L25" s="34"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="73"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="34"/>
       <c r="O25" s="21"/>
       <c r="P25" s="21"/>
       <c r="Q25" s="42"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="72" t="s">
         <v>41</v>
       </c>
       <c r="C26" s="24" t="s">
@@ -2479,12 +2458,12 @@
       <c r="L26" s="34"/>
       <c r="M26" s="34"/>
       <c r="N26" s="30"/>
-      <c r="O26" s="71"/>
+      <c r="O26" s="30"/>
       <c r="P26" s="30"/>
       <c r="Q26" s="42"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B27" s="49"/>
+      <c r="B27" s="73"/>
       <c r="C27" s="24" t="s">
         <v>43</v>
       </c>
@@ -2492,7 +2471,7 @@
       <c r="E27" s="23">
         <v>45091</v>
       </c>
-      <c r="F27" s="83"/>
+      <c r="F27" s="22"/>
       <c r="G27" s="34"/>
       <c r="H27" s="34"/>
       <c r="I27" s="34"/>
@@ -2506,7 +2485,7 @@
       <c r="Q27" s="42"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B28" s="50"/>
+      <c r="B28" s="74"/>
       <c r="C28" s="24" t="s">
         <v>44</v>
       </c>
@@ -2514,7 +2493,7 @@
       <c r="E28" s="23">
         <v>45091</v>
       </c>
-      <c r="F28" s="83"/>
+      <c r="F28" s="22"/>
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
       <c r="I28" s="34"/>
@@ -2531,23 +2510,23 @@
       <c r="B29" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="80">
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="53">
         <v>45091</v>
       </c>
-      <c r="F29" s="85"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="77"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="51"/>
     </row>
     <row r="30" spans="2:17" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="25" t="s">
@@ -2558,7 +2537,7 @@
       <c r="E30" s="27">
         <v>45092</v>
       </c>
-      <c r="F30" s="86"/>
+      <c r="F30" s="57"/>
       <c r="G30" s="35"/>
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
@@ -2568,8 +2547,8 @@
       <c r="M30" s="35"/>
       <c r="N30" s="35"/>
       <c r="O30" s="35"/>
-      <c r="P30" s="78"/>
-      <c r="Q30" s="79"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="52"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.35">
       <c r="G32" s="28"/>
@@ -2585,16 +2564,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="G5:Q5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="B21:B25"/>
     <mergeCell ref="B26:B28"/>
@@ -2606,6 +2575,16 @@
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="C21:C23"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:Q5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx/php選手権_骨子.xlsx
+++ b/xlsx/php選手権_骨子.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/gs/PHP_championship_hidetaka_y/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED46C8C1-0106-A74B-BF22-ACEF0254C852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8D0849-5236-6149-BC31-27E654CE2E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3380" yWindow="1600" windowWidth="30780" windowHeight="19080" activeTab="1" xr2:uid="{E38387A7-D199-B74B-AE86-F0B0EAFBB4A7}"/>
   </bookViews>
@@ -1842,7 +1842,7 @@
       <pane xSplit="6" ySplit="8" topLeftCell="G11" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="T1" sqref="T1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3" defaultRowHeight="20" x14ac:dyDescent="0.35"/>
@@ -2375,7 +2375,9 @@
       <c r="E23" s="15">
         <v>45090</v>
       </c>
-      <c r="F23" s="22"/>
+      <c r="F23" s="22">
+        <v>45090</v>
+      </c>
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
       <c r="I23" s="30"/>
